--- a/variant_11/Задание 9/9.xlsx
+++ b/variant_11/Задание 9/9.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josef\YandexDisk\BeeGeek\ИНформатика\2020-2021\Варианты\6 вариант\Файлы\Задание 9\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76487C6A-866C-4C45-A164-40CFB76F5C9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Лист3" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -133,7 +127,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -185,7 +179,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -379,18 +373,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="Q56" sqref="A1:Y92"/>
+    <sheetView tabSelected="1" topLeftCell="N71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB93" sqref="AB93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -545,6 +539,14 @@
       <c r="Y2" s="4">
         <v>16.5</v>
       </c>
+      <c r="Z2" s="4">
+        <f xml:space="preserve"> MAX(N2:Y2)</f>
+        <v>25.7</v>
+      </c>
+      <c r="AA2" s="4">
+        <f>MIN(N2:Y2)</f>
+        <v>15.9</v>
+      </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -622,6 +624,14 @@
       <c r="Y3" s="4">
         <v>15.3</v>
       </c>
+      <c r="Z3" s="4">
+        <f t="shared" ref="Z3:Z66" si="0" xml:space="preserve"> MAX(N3:Y3)</f>
+        <v>26</v>
+      </c>
+      <c r="AA3" s="4">
+        <f t="shared" ref="AA3:AA66" si="1">MIN(N3:Y3)</f>
+        <v>13.3</v>
+      </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -699,6 +709,14 @@
       <c r="Y4" s="4">
         <v>16.5</v>
       </c>
+      <c r="Z4" s="4">
+        <f t="shared" si="0"/>
+        <v>25.9</v>
+      </c>
+      <c r="AA4" s="4">
+        <f t="shared" si="1"/>
+        <v>14.4</v>
+      </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -776,6 +794,14 @@
       <c r="Y5" s="4">
         <v>15.6</v>
       </c>
+      <c r="Z5" s="4">
+        <f t="shared" si="0"/>
+        <v>24.7</v>
+      </c>
+      <c r="AA5" s="4">
+        <f t="shared" si="1"/>
+        <v>15.6</v>
+      </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -853,6 +879,14 @@
       <c r="Y6" s="4">
         <v>14.7</v>
       </c>
+      <c r="Z6" s="4">
+        <f t="shared" si="0"/>
+        <v>24.5</v>
+      </c>
+      <c r="AA6" s="4">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -930,6 +964,14 @@
       <c r="Y7" s="4">
         <v>13.9</v>
       </c>
+      <c r="Z7" s="4">
+        <f t="shared" si="0"/>
+        <v>25.2</v>
+      </c>
+      <c r="AA7" s="4">
+        <f t="shared" si="1"/>
+        <v>13.9</v>
+      </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -1007,6 +1049,14 @@
       <c r="Y8" s="4">
         <v>16.5</v>
       </c>
+      <c r="Z8" s="4">
+        <f t="shared" si="0"/>
+        <v>25.1</v>
+      </c>
+      <c r="AA8" s="4">
+        <f t="shared" si="1"/>
+        <v>15.1</v>
+      </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -1084,7 +1134,14 @@
       <c r="Y9" s="4">
         <v>17</v>
       </c>
-      <c r="AA9" s="4"/>
+      <c r="Z9" s="4">
+        <f t="shared" si="0"/>
+        <v>25.7</v>
+      </c>
+      <c r="AA9" s="4">
+        <f t="shared" si="1"/>
+        <v>13.4</v>
+      </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -1162,6 +1219,14 @@
       <c r="Y10" s="4">
         <v>14.2</v>
       </c>
+      <c r="Z10" s="4">
+        <f t="shared" si="0"/>
+        <v>25.6</v>
+      </c>
+      <c r="AA10" s="4">
+        <f t="shared" si="1"/>
+        <v>14.2</v>
+      </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -1239,6 +1304,14 @@
       <c r="Y11" s="4">
         <v>16.600000000000001</v>
       </c>
+      <c r="Z11" s="4">
+        <f t="shared" si="0"/>
+        <v>25.6</v>
+      </c>
+      <c r="AA11" s="4">
+        <f t="shared" si="1"/>
+        <v>16.600000000000001</v>
+      </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -1316,6 +1389,14 @@
       <c r="Y12" s="4">
         <v>15</v>
       </c>
+      <c r="Z12" s="4">
+        <f t="shared" si="0"/>
+        <v>25.9</v>
+      </c>
+      <c r="AA12" s="4">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -1393,6 +1474,14 @@
       <c r="Y13" s="4">
         <v>15.8</v>
       </c>
+      <c r="Z13" s="4">
+        <f t="shared" si="0"/>
+        <v>25.5</v>
+      </c>
+      <c r="AA13" s="4">
+        <f t="shared" si="1"/>
+        <v>15.8</v>
+      </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -1470,6 +1559,14 @@
       <c r="Y14" s="4">
         <v>16.100000000000001</v>
       </c>
+      <c r="Z14" s="4">
+        <f t="shared" si="0"/>
+        <v>25.9</v>
+      </c>
+      <c r="AA14" s="4">
+        <f t="shared" si="1"/>
+        <v>15.6</v>
+      </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1547,6 +1644,14 @@
       <c r="Y15" s="4">
         <v>13.2</v>
       </c>
+      <c r="Z15" s="4">
+        <f t="shared" si="0"/>
+        <v>24.9</v>
+      </c>
+      <c r="AA15" s="4">
+        <f t="shared" si="1"/>
+        <v>13.2</v>
+      </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -1624,8 +1729,16 @@
       <c r="Y16" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z16" s="4">
+        <f t="shared" si="0"/>
+        <v>24.9</v>
+      </c>
+      <c r="AA16" s="4">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43206</v>
       </c>
@@ -1701,8 +1814,16 @@
       <c r="Y17" s="4">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z17" s="4">
+        <f t="shared" si="0"/>
+        <v>24.7</v>
+      </c>
+      <c r="AA17" s="4">
+        <f t="shared" si="1"/>
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43207</v>
       </c>
@@ -1778,8 +1899,16 @@
       <c r="Y18" s="4">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z18" s="4">
+        <f t="shared" si="0"/>
+        <v>25.2</v>
+      </c>
+      <c r="AA18" s="4">
+        <f t="shared" si="1"/>
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43208</v>
       </c>
@@ -1855,8 +1984,16 @@
       <c r="Y19" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z19" s="4">
+        <f t="shared" si="0"/>
+        <v>25.3</v>
+      </c>
+      <c r="AA19" s="4">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43209</v>
       </c>
@@ -1932,8 +2069,16 @@
       <c r="Y20" s="4">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z20" s="4">
+        <f t="shared" si="0"/>
+        <v>25.4</v>
+      </c>
+      <c r="AA20" s="4">
+        <f t="shared" si="1"/>
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43210</v>
       </c>
@@ -2009,8 +2154,16 @@
       <c r="Y21" s="4">
         <v>16.399999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z21" s="4">
+        <f t="shared" si="0"/>
+        <v>25.6</v>
+      </c>
+      <c r="AA21" s="4">
+        <f t="shared" si="1"/>
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43211</v>
       </c>
@@ -2086,8 +2239,16 @@
       <c r="Y22" s="4">
         <v>16.899999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z22" s="4">
+        <f t="shared" si="0"/>
+        <v>25.3</v>
+      </c>
+      <c r="AA22" s="4">
+        <f t="shared" si="1"/>
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43212</v>
       </c>
@@ -2163,8 +2324,16 @@
       <c r="Y23" s="4">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z23" s="4">
+        <f t="shared" si="0"/>
+        <v>25.7</v>
+      </c>
+      <c r="AA23" s="4">
+        <f t="shared" si="1"/>
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43213</v>
       </c>
@@ -2240,8 +2409,16 @@
       <c r="Y24" s="4">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z24" s="4">
+        <f t="shared" si="0"/>
+        <v>25.4</v>
+      </c>
+      <c r="AA24" s="4">
+        <f t="shared" si="1"/>
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43214</v>
       </c>
@@ -2317,8 +2494,16 @@
       <c r="Y25" s="4">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z25" s="4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="AA25" s="4">
+        <f t="shared" si="1"/>
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43215</v>
       </c>
@@ -2394,8 +2579,16 @@
       <c r="Y26" s="4">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z26" s="4">
+        <f t="shared" si="0"/>
+        <v>25.6</v>
+      </c>
+      <c r="AA26" s="4">
+        <f t="shared" si="1"/>
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43216</v>
       </c>
@@ -2471,8 +2664,16 @@
       <c r="Y27" s="4">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z27" s="4">
+        <f t="shared" si="0"/>
+        <v>24.8</v>
+      </c>
+      <c r="AA27" s="4">
+        <f t="shared" si="1"/>
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43217</v>
       </c>
@@ -2548,8 +2749,16 @@
       <c r="Y28" s="4">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z28" s="4">
+        <f t="shared" si="0"/>
+        <v>25.6</v>
+      </c>
+      <c r="AA28" s="4">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43218</v>
       </c>
@@ -2625,8 +2834,16 @@
       <c r="Y29" s="4">
         <v>15.7</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z29" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AA29" s="4">
+        <f t="shared" si="1"/>
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43219</v>
       </c>
@@ -2702,8 +2919,16 @@
       <c r="Y30" s="4">
         <v>15.7</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z30" s="4">
+        <f t="shared" si="0"/>
+        <v>25.8</v>
+      </c>
+      <c r="AA30" s="4">
+        <f t="shared" si="1"/>
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43220</v>
       </c>
@@ -2779,8 +3004,16 @@
       <c r="Y31" s="4">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z31" s="4">
+        <f t="shared" si="0"/>
+        <v>25.7</v>
+      </c>
+      <c r="AA31" s="4">
+        <f t="shared" si="1"/>
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43221</v>
       </c>
@@ -2856,8 +3089,16 @@
       <c r="Y32" s="4">
         <v>21</v>
       </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z32" s="4">
+        <f t="shared" si="0"/>
+        <v>30.6</v>
+      </c>
+      <c r="AA32" s="4">
+        <f t="shared" si="1"/>
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43222</v>
       </c>
@@ -2933,8 +3174,16 @@
       <c r="Y33" s="4">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z33" s="4">
+        <f t="shared" si="0"/>
+        <v>29.8</v>
+      </c>
+      <c r="AA33" s="4">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43223</v>
       </c>
@@ -3010,8 +3259,16 @@
       <c r="Y34" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z34" s="4">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="AA34" s="4">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43224</v>
       </c>
@@ -3087,8 +3344,16 @@
       <c r="Y35" s="4">
         <v>21.3</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z35" s="4">
+        <f t="shared" si="0"/>
+        <v>30.4</v>
+      </c>
+      <c r="AA35" s="4">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43225</v>
       </c>
@@ -3164,8 +3429,16 @@
       <c r="Y36" s="4">
         <v>20.399999999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z36" s="4">
+        <f t="shared" si="0"/>
+        <v>30.9</v>
+      </c>
+      <c r="AA36" s="4">
+        <f t="shared" si="1"/>
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43226</v>
       </c>
@@ -3241,8 +3514,16 @@
       <c r="Y37" s="4">
         <v>21.1</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z37" s="4">
+        <f t="shared" si="0"/>
+        <v>30.9</v>
+      </c>
+      <c r="AA37" s="4">
+        <f t="shared" si="1"/>
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43227</v>
       </c>
@@ -3318,8 +3599,16 @@
       <c r="Y38" s="4">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z38" s="4">
+        <f t="shared" si="0"/>
+        <v>30.1</v>
+      </c>
+      <c r="AA38" s="4">
+        <f t="shared" si="1"/>
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>43228</v>
       </c>
@@ -3395,8 +3684,16 @@
       <c r="Y39" s="4">
         <v>19.3</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z39" s="4">
+        <f t="shared" si="0"/>
+        <v>30.3</v>
+      </c>
+      <c r="AA39" s="4">
+        <f t="shared" si="1"/>
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43229</v>
       </c>
@@ -3472,8 +3769,16 @@
       <c r="Y40" s="4">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z40" s="4">
+        <f t="shared" si="0"/>
+        <v>30.6</v>
+      </c>
+      <c r="AA40" s="4">
+        <f t="shared" si="1"/>
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>43230</v>
       </c>
@@ -3549,8 +3854,16 @@
       <c r="Y41" s="4">
         <v>20.100000000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z41" s="4">
+        <f t="shared" si="0"/>
+        <v>30.8</v>
+      </c>
+      <c r="AA41" s="4">
+        <f t="shared" si="1"/>
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>43231</v>
       </c>
@@ -3626,8 +3939,16 @@
       <c r="Y42" s="4">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z42" s="4">
+        <f t="shared" si="0"/>
+        <v>30.5</v>
+      </c>
+      <c r="AA42" s="4">
+        <f t="shared" si="1"/>
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>43232</v>
       </c>
@@ -3703,8 +4024,16 @@
       <c r="Y43" s="4">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z43" s="4">
+        <f t="shared" si="0"/>
+        <v>29.8</v>
+      </c>
+      <c r="AA43" s="4">
+        <f t="shared" si="1"/>
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43233</v>
       </c>
@@ -3780,8 +4109,16 @@
       <c r="Y44" s="4">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z44" s="4">
+        <f t="shared" si="0"/>
+        <v>30.2</v>
+      </c>
+      <c r="AA44" s="4">
+        <f t="shared" si="1"/>
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43234</v>
       </c>
@@ -3857,8 +4194,16 @@
       <c r="Y45" s="4">
         <v>21.3</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z45" s="4">
+        <f t="shared" si="0"/>
+        <v>30.9</v>
+      </c>
+      <c r="AA45" s="4">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43235</v>
       </c>
@@ -3934,8 +4279,16 @@
       <c r="Y46" s="4">
         <v>18.7</v>
       </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z46" s="4">
+        <f t="shared" si="0"/>
+        <v>30.3</v>
+      </c>
+      <c r="AA46" s="4">
+        <f t="shared" si="1"/>
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43236</v>
       </c>
@@ -4011,8 +4364,16 @@
       <c r="Y47" s="4">
         <v>19.7</v>
       </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z47" s="4">
+        <f t="shared" si="0"/>
+        <v>30.5</v>
+      </c>
+      <c r="AA47" s="4">
+        <f t="shared" si="1"/>
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>43237</v>
       </c>
@@ -4088,8 +4449,16 @@
       <c r="Y48" s="4">
         <v>19</v>
       </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z48" s="4">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="AA48" s="4">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>43238</v>
       </c>
@@ -4165,8 +4534,16 @@
       <c r="Y49" s="4">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z49" s="4">
+        <f t="shared" si="0"/>
+        <v>29.9</v>
+      </c>
+      <c r="AA49" s="4">
+        <f t="shared" si="1"/>
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>43239</v>
       </c>
@@ -4242,8 +4619,16 @@
       <c r="Y50" s="4">
         <v>19.3</v>
       </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z50" s="4">
+        <f t="shared" si="0"/>
+        <v>30.8</v>
+      </c>
+      <c r="AA50" s="4">
+        <f t="shared" si="1"/>
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>43240</v>
       </c>
@@ -4319,8 +4704,16 @@
       <c r="Y51" s="4">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z51" s="4">
+        <f t="shared" si="0"/>
+        <v>30.8</v>
+      </c>
+      <c r="AA51" s="4">
+        <f t="shared" si="1"/>
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>43241</v>
       </c>
@@ -4396,8 +4789,16 @@
       <c r="Y52" s="4">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z52" s="4">
+        <f t="shared" si="0"/>
+        <v>29.7</v>
+      </c>
+      <c r="AA52" s="4">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>43242</v>
       </c>
@@ -4473,8 +4874,16 @@
       <c r="Y53" s="4">
         <v>21.4</v>
       </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z53" s="4">
+        <f t="shared" si="0"/>
+        <v>29.5</v>
+      </c>
+      <c r="AA53" s="4">
+        <f t="shared" si="1"/>
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>43243</v>
       </c>
@@ -4550,8 +4959,16 @@
       <c r="Y54" s="4">
         <v>21.8</v>
       </c>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z54" s="4">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="AA54" s="4">
+        <f t="shared" si="1"/>
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>43244</v>
       </c>
@@ -4627,8 +5044,16 @@
       <c r="Y55" s="4">
         <v>19</v>
       </c>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z55" s="4">
+        <f t="shared" si="0"/>
+        <v>30.5</v>
+      </c>
+      <c r="AA55" s="4">
+        <f t="shared" si="1"/>
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>43245</v>
       </c>
@@ -4704,8 +5129,16 @@
       <c r="Y56" s="4">
         <v>19.100000000000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z56" s="4">
+        <f t="shared" si="0"/>
+        <v>29.9</v>
+      </c>
+      <c r="AA56" s="4">
+        <f t="shared" si="1"/>
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>43246</v>
       </c>
@@ -4781,8 +5214,16 @@
       <c r="Y57" s="4">
         <v>18.899999999999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z57" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="AA57" s="4">
+        <f t="shared" si="1"/>
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>43247</v>
       </c>
@@ -4858,8 +5299,16 @@
       <c r="Y58" s="4">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z58" s="4">
+        <f t="shared" si="0"/>
+        <v>29.6</v>
+      </c>
+      <c r="AA58" s="4">
+        <f t="shared" si="1"/>
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>43248</v>
       </c>
@@ -4935,8 +5384,16 @@
       <c r="Y59" s="4">
         <v>20.2</v>
       </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z59" s="4">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="AA59" s="4">
+        <f t="shared" si="1"/>
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>43249</v>
       </c>
@@ -5012,8 +5469,16 @@
       <c r="Y60" s="4">
         <v>19.7</v>
       </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z60" s="4">
+        <f t="shared" si="0"/>
+        <v>29.9</v>
+      </c>
+      <c r="AA60" s="4">
+        <f t="shared" si="1"/>
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>43250</v>
       </c>
@@ -5089,8 +5554,16 @@
       <c r="Y61" s="4">
         <v>21.3</v>
       </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z61" s="4">
+        <f t="shared" si="0"/>
+        <v>30.8</v>
+      </c>
+      <c r="AA61" s="4">
+        <f t="shared" si="1"/>
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>43251</v>
       </c>
@@ -5166,8 +5639,16 @@
       <c r="Y62" s="4">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z62" s="4">
+        <f t="shared" si="0"/>
+        <v>29.3</v>
+      </c>
+      <c r="AA62" s="4">
+        <f t="shared" si="1"/>
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>43252</v>
       </c>
@@ -5243,8 +5724,16 @@
       <c r="Y63" s="4">
         <v>26.5</v>
       </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z63" s="4">
+        <f t="shared" si="0"/>
+        <v>37.299999999999997</v>
+      </c>
+      <c r="AA63" s="4">
+        <f t="shared" si="1"/>
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>43253</v>
       </c>
@@ -5320,8 +5809,16 @@
       <c r="Y64" s="4">
         <v>27.6</v>
       </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z64" s="4">
+        <f t="shared" si="0"/>
+        <v>37.1</v>
+      </c>
+      <c r="AA64" s="4">
+        <f t="shared" si="1"/>
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>43254</v>
       </c>
@@ -5397,8 +5894,16 @@
       <c r="Y65" s="4">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z65" s="4">
+        <f t="shared" si="0"/>
+        <v>37.9</v>
+      </c>
+      <c r="AA65" s="4">
+        <f t="shared" si="1"/>
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>43255</v>
       </c>
@@ -5474,8 +5979,16 @@
       <c r="Y66" s="4">
         <v>27.6</v>
       </c>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z66" s="4">
+        <f t="shared" si="0"/>
+        <v>37.9</v>
+      </c>
+      <c r="AA66" s="4">
+        <f t="shared" si="1"/>
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>43256</v>
       </c>
@@ -5551,8 +6064,16 @@
       <c r="Y67" s="4">
         <v>28.3</v>
       </c>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z67" s="4">
+        <f t="shared" ref="Z67:Z92" si="2" xml:space="preserve"> MAX(N67:Y67)</f>
+        <v>37.4</v>
+      </c>
+      <c r="AA67" s="4">
+        <f t="shared" ref="AA67:AA92" si="3">MIN(N67:Y67)</f>
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>43257</v>
       </c>
@@ -5628,8 +6149,16 @@
       <c r="Y68" s="4">
         <v>25.7</v>
       </c>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z68" s="4">
+        <f t="shared" si="2"/>
+        <v>37.4</v>
+      </c>
+      <c r="AA68" s="4">
+        <f t="shared" si="3"/>
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>43258</v>
       </c>
@@ -5705,8 +6234,16 @@
       <c r="Y69" s="4">
         <v>27.9</v>
       </c>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z69" s="4">
+        <f t="shared" si="2"/>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="AA69" s="4">
+        <f t="shared" si="3"/>
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>43259</v>
       </c>
@@ -5782,8 +6319,16 @@
       <c r="Y70" s="4">
         <v>28.4</v>
       </c>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z70" s="4">
+        <f t="shared" si="2"/>
+        <v>35.700000000000003</v>
+      </c>
+      <c r="AA70" s="4">
+        <f t="shared" si="3"/>
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>43260</v>
       </c>
@@ -5859,8 +6404,16 @@
       <c r="Y71" s="4">
         <v>27.7</v>
       </c>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z71" s="4">
+        <f t="shared" si="2"/>
+        <v>36.4</v>
+      </c>
+      <c r="AA71" s="4">
+        <f t="shared" si="3"/>
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>43261</v>
       </c>
@@ -5936,8 +6489,16 @@
       <c r="Y72" s="4">
         <v>28.4</v>
       </c>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z72" s="4">
+        <f t="shared" si="2"/>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="AA72" s="4">
+        <f t="shared" si="3"/>
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>43262</v>
       </c>
@@ -6013,8 +6574,16 @@
       <c r="Y73" s="4">
         <v>26.6</v>
       </c>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z73" s="4">
+        <f t="shared" si="2"/>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="AA73" s="4">
+        <f t="shared" si="3"/>
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>43263</v>
       </c>
@@ -6090,8 +6659,16 @@
       <c r="Y74" s="4">
         <v>28.8</v>
       </c>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z74" s="4">
+        <f t="shared" si="2"/>
+        <v>36.700000000000003</v>
+      </c>
+      <c r="AA74" s="4">
+        <f t="shared" si="3"/>
+        <v>27.7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>43264</v>
       </c>
@@ -6167,8 +6744,16 @@
       <c r="Y75" s="4">
         <v>27.5</v>
       </c>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z75" s="4">
+        <f t="shared" si="2"/>
+        <v>35.799999999999997</v>
+      </c>
+      <c r="AA75" s="4">
+        <f t="shared" si="3"/>
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>43265</v>
       </c>
@@ -6244,8 +6829,16 @@
       <c r="Y76" s="4">
         <v>28.7</v>
       </c>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z76" s="4">
+        <f t="shared" si="2"/>
+        <v>37.5</v>
+      </c>
+      <c r="AA76" s="4">
+        <f t="shared" si="3"/>
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>43266</v>
       </c>
@@ -6321,8 +6914,16 @@
       <c r="Y77" s="4">
         <v>25.3</v>
       </c>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z77" s="4">
+        <f t="shared" si="2"/>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="AA77" s="4">
+        <f t="shared" si="3"/>
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>43267</v>
       </c>
@@ -6398,8 +6999,16 @@
       <c r="Y78" s="4">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z78" s="4">
+        <f t="shared" si="2"/>
+        <v>37.299999999999997</v>
+      </c>
+      <c r="AA78" s="4">
+        <f t="shared" si="3"/>
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>43268</v>
       </c>
@@ -6475,8 +7084,16 @@
       <c r="Y79" s="4">
         <v>28.5</v>
       </c>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z79" s="4">
+        <f t="shared" si="2"/>
+        <v>36.5</v>
+      </c>
+      <c r="AA79" s="4">
+        <f t="shared" si="3"/>
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>43269</v>
       </c>
@@ -6552,8 +7169,16 @@
       <c r="Y80" s="4">
         <v>26.2</v>
       </c>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z80" s="4">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="AA80" s="4">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>43270</v>
       </c>
@@ -6629,8 +7254,16 @@
       <c r="Y81" s="4">
         <v>27.6</v>
       </c>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z81" s="4">
+        <f t="shared" si="2"/>
+        <v>36.700000000000003</v>
+      </c>
+      <c r="AA81" s="4">
+        <f t="shared" si="3"/>
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>43271</v>
       </c>
@@ -6706,8 +7339,16 @@
       <c r="Y82" s="4">
         <v>27.2</v>
       </c>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z82" s="4">
+        <f t="shared" si="2"/>
+        <v>37.6</v>
+      </c>
+      <c r="AA82" s="4">
+        <f t="shared" si="3"/>
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>43272</v>
       </c>
@@ -6783,8 +7424,16 @@
       <c r="Y83" s="4">
         <v>25.1</v>
       </c>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z83" s="4">
+        <f t="shared" si="2"/>
+        <v>36.799999999999997</v>
+      </c>
+      <c r="AA83" s="4">
+        <f t="shared" si="3"/>
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>43273</v>
       </c>
@@ -6860,8 +7509,16 @@
       <c r="Y84" s="4">
         <v>26.1</v>
       </c>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z84" s="4">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="AA84" s="4">
+        <f t="shared" si="3"/>
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>43274</v>
       </c>
@@ -6937,8 +7594,16 @@
       <c r="Y85" s="4">
         <v>25.9</v>
       </c>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z85" s="4">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="AA85" s="4">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>43275</v>
       </c>
@@ -7014,8 +7679,16 @@
       <c r="Y86" s="4">
         <v>25.1</v>
       </c>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z86" s="4">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="AA86" s="4">
+        <f t="shared" si="3"/>
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>43276</v>
       </c>
@@ -7091,8 +7764,16 @@
       <c r="Y87" s="4">
         <v>28.3</v>
       </c>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z87" s="4">
+        <f t="shared" si="2"/>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="AA87" s="4">
+        <f t="shared" si="3"/>
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>43277</v>
       </c>
@@ -7168,8 +7849,16 @@
       <c r="Y88" s="4">
         <v>28.9</v>
       </c>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z88" s="4">
+        <f t="shared" si="2"/>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="AA88" s="4">
+        <f t="shared" si="3"/>
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>43278</v>
       </c>
@@ -7245,8 +7934,16 @@
       <c r="Y89" s="4">
         <v>26.4</v>
       </c>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z89" s="4">
+        <f t="shared" si="2"/>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="AA89" s="4">
+        <f t="shared" si="3"/>
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>43279</v>
       </c>
@@ -7322,8 +8019,16 @@
       <c r="Y90" s="4">
         <v>27.8</v>
       </c>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z90" s="4">
+        <f t="shared" si="2"/>
+        <v>36.200000000000003</v>
+      </c>
+      <c r="AA90" s="4">
+        <f t="shared" si="3"/>
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>43280</v>
       </c>
@@ -7399,8 +8104,16 @@
       <c r="Y91" s="4">
         <v>27.7</v>
       </c>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z91" s="4">
+        <f t="shared" si="2"/>
+        <v>37.6</v>
+      </c>
+      <c r="AA91" s="4">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>43281</v>
       </c>
@@ -7476,11 +8189,29 @@
       <c r="Y92" s="4">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z92" s="4">
+        <f t="shared" si="2"/>
+        <v>37.4</v>
+      </c>
+      <c r="AA92" s="4">
+        <f t="shared" si="3"/>
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z93" s="4">
+        <f>MAX(Z1:Z92)</f>
+        <v>38</v>
+      </c>
+      <c r="AA93" s="4">
+        <f>MIN(AA1:AA92)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C95" s="3"/>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C96" s="3"/>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.25">
